--- a/data/LEAP_Energy_Balance.xlsx
+++ b/data/LEAP_Energy_Balance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ev\Documents\Software Projects\SDSN GCH\ScenViz_Template\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F66B0F1A-3AC2-4A5F-A5F6-E1BB92F2851B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070D4D4A-9728-4596-8550-AC154420CAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{81D87EDF-D787-40D7-A8B6-04AD1AC32429}"/>
   </bookViews>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A09256-8832-4715-A857-E81488824F03}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:O43"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,6 +556,7 @@
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="21.5703125" customWidth="1"/>
     <col min="11" max="12" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
